--- a/biology/Botanique/Herniaire_glabre/Herniaire_glabre.xlsx
+++ b/biology/Botanique/Herniaire_glabre/Herniaire_glabre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Herniaria glabra
 La turquette, Herniaria glabra, est une espèce de plantes herbacées de la famille des Caryophyllaceae. C’est une petite plante à fleurs verdâtres, qui croît dans les lieux arides et sablonneux.
-Utilisée pour ses vertus médicinales, comme diurétique, astringent et émollient[2].
+Utilisée pour ses vertus médicinales, comme diurétique, astringent et émollient.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (9 août 2014)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (9 août 2014) :
 sous-espèce Herniaria glabra subsp. glabra
 sous-espèce Herniaria glabra subsp. nebrodensis
 sous-espèce Herniaria glabra subsp. rotundifolia
-Selon Tropicos                                           (9 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (9 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Herniaria glabra subsp. nebrodensis (J. Presl &amp; C. Presl) Jan ex Nyman
 sous-espèce Herniaria glabra subsp. rotundifolia (Vis.) Trpin
 variété Herniaria glabra var. glabra
